--- a/legislator/property/output/normal/林世嘉_2012-05-01_財產申報表_tmpada11.xlsx
+++ b/legislator/property/output/normal/林世嘉_2012-05-01_財產申報表_tmpada11.xlsx
@@ -16,9 +16,105 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="41">
-  <si>
-    <t>土地坐落</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="57">
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>area</t>
+  </si>
+  <si>
+    <t>share_portion</t>
+  </si>
+  <si>
+    <t>owner</t>
+  </si>
+  <si>
+    <t>register_date</t>
+  </si>
+  <si>
+    <t>register_reason</t>
+  </si>
+  <si>
+    <t>acquire_value</t>
+  </si>
+  <si>
+    <t>property_category</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>legislator_name</t>
+  </si>
+  <si>
+    <t>legislator_id</t>
+  </si>
+  <si>
+    <t>source_file</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
+    <t>臺北市大安區仁愛段二小段06010000地號</t>
+  </si>
+  <si>
+    <t>臺北市中山區長安段四小段02980000地號</t>
+  </si>
+  <si>
+    <t>臺北市中山區長安段四小段02300000地號</t>
+  </si>
+  <si>
+    <t>30000分之1703</t>
+  </si>
+  <si>
+    <t>10000分之211</t>
+  </si>
+  <si>
+    <t>10000分之180</t>
+  </si>
+  <si>
+    <t>林世嘉</t>
+  </si>
+  <si>
+    <t>蔡篤堅</t>
+  </si>
+  <si>
+    <t>93年01月02日</t>
+  </si>
+  <si>
+    <t>92年01月17日</t>
+  </si>
+  <si>
+    <t>97年04月03日</t>
+  </si>
+  <si>
+    <t>買賣</t>
+  </si>
+  <si>
+    <t>(超過五年）</t>
+  </si>
+  <si>
+    <t>15000000(房地總價額）</t>
+  </si>
+  <si>
+    <t>land</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>2012-05-01</t>
+  </si>
+  <si>
+    <t>tmpada11</t>
+  </si>
+  <si>
+    <t>建物標示</t>
   </si>
   <si>
     <t>面積（平方公尺）</t>
@@ -39,64 +135,19 @@
     <t>取得價額</t>
   </si>
   <si>
-    <t>臺北市大安區仁愛段二小段 0601-0000 地號</t>
-  </si>
-  <si>
-    <t>臺北市中山區長安段四小段 0298-0000 地號</t>
-  </si>
-  <si>
-    <t>臺北市中山區長安段四小段 0230-0000 地號</t>
-  </si>
-  <si>
-    <t>30000分之 1703</t>
-  </si>
-  <si>
-    <t>10000分之 211</t>
-  </si>
-  <si>
-    <t>10000分之 180</t>
-  </si>
-  <si>
-    <t>林世嘉</t>
-  </si>
-  <si>
-    <t>蔡篤堅</t>
-  </si>
-  <si>
-    <t>93年01月 02日</t>
-  </si>
-  <si>
-    <t>92年01月 17日</t>
-  </si>
-  <si>
-    <t>97年04月 03日</t>
-  </si>
-  <si>
-    <t>買賣</t>
-  </si>
-  <si>
-    <t>(超過五年）</t>
-  </si>
-  <si>
-    <t>15,000’000(房 地總價額）</t>
-  </si>
-  <si>
-    <t>建物標示</t>
-  </si>
-  <si>
-    <t>臺北市大安區仁愛段二小段 05345-000 建號</t>
-  </si>
-  <si>
-    <t>臺北市大安區仁愛段二小段 03854-000 建號</t>
-  </si>
-  <si>
-    <t>臺北市中山區長安段四小段 01678-000 建號</t>
-  </si>
-  <si>
-    <t>臺北市中山區長安段四小段 02074-000 建號</t>
-  </si>
-  <si>
-    <t>臺北市中山區長安段四小段 03734-000 建號</t>
+    <t>臺北市大安區仁愛段二小段05345000建號</t>
+  </si>
+  <si>
+    <t>臺北市大安區仁愛段二小段03854000建號</t>
+  </si>
+  <si>
+    <t>臺北市中山區長安段四小段01678000建號</t>
+  </si>
+  <si>
+    <t>臺北市中山區長安段四小段02074000建號</t>
+  </si>
+  <si>
+    <t>臺北市中山區長安段四小段03734000建號</t>
   </si>
   <si>
     <t>全部</t>
@@ -108,22 +159,19 @@
     <t>3分之1</t>
   </si>
   <si>
-    <t>10000分之 197</t>
+    <t>10000分之197</t>
   </si>
   <si>
     <t>100分之47</t>
   </si>
   <si>
-    <t>92年01月 17曰</t>
+    <t>92年01月17曰</t>
   </si>
   <si>
     <t>貿賣</t>
   </si>
   <si>
-    <t>15,000’000(同 上筆土地）</t>
-  </si>
-  <si>
-    <t>15’000,000(同 上筆土地）</t>
+    <t>15000000(同上筆土地）</t>
   </si>
   <si>
     <t>廠牌型號</t>
@@ -135,7 +183,7 @@
     <t>所有人</t>
   </si>
   <si>
-    <t>VOLKSWAGEN PSDDAT2.0</t>
+    <t>VOLKSWAGENPSDDAT2.0</t>
   </si>
   <si>
     <t>94年01月</t>
@@ -497,13 +545,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:O4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:15">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -525,83 +573,167 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>14</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C2" s="2">
         <v>509</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M2" s="2">
+        <v>1740</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O2" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>15</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C3" s="2">
         <v>1069</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M3" s="2">
+        <v>1740</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O3" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>16</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C4" s="2">
         <v>448</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="H4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L4" s="2" t="s">
         <v>20</v>
+      </c>
+      <c r="M4" s="2">
+        <v>1740</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O4" s="2">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -619,25 +751,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>34</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>35</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
+        <v>37</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>6</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -645,25 +777,25 @@
         <v>21</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="C2" s="2">
         <v>83.23</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -671,25 +803,25 @@
         <v>22</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="C3" s="2">
         <v>337.9</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -697,25 +829,25 @@
         <v>23</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="C4" s="2">
         <v>26.56</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -723,25 +855,25 @@
         <v>24</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="C5" s="2">
         <v>765.6</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -749,25 +881,25 @@
         <v>25</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="C6" s="2">
         <v>3.2</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -785,19 +917,19 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -805,19 +937,19 @@
         <v>34</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="C2" s="2">
         <v>1984</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/林世嘉_2012-05-01_財產申報表_tmpada11.xlsx
+++ b/legislator/property/output/normal/林世嘉_2012-05-01_財產申報表_tmpada11.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="47">
   <si>
     <t>name</t>
   </si>
@@ -60,7 +60,10 @@
     <t>index</t>
   </si>
   <si>
-    <t>臺北市大安區仁愛段二小段06010000地號</t>
+    <t>portion</t>
+  </si>
+  <si>
+    <t>total</t>
   </si>
   <si>
     <t>臺北市中山區長安段四小段02980000地號</t>
@@ -69,73 +72,55 @@
     <t>臺北市中山區長安段四小段02300000地號</t>
   </si>
   <si>
-    <t>30000分之1703</t>
-  </si>
-  <si>
     <t>10000分之211</t>
   </si>
   <si>
     <t>10000分之180</t>
   </si>
   <si>
+    <t>蔡篤堅</t>
+  </si>
+  <si>
+    <t>92年01月17日</t>
+  </si>
+  <si>
+    <t>97年04月03日</t>
+  </si>
+  <si>
+    <t>買賣</t>
+  </si>
+  <si>
+    <t>(超過五年）</t>
+  </si>
+  <si>
+    <t>15000000(房地總價額）</t>
+  </si>
+  <si>
+    <t>land</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>2012-05-01</t>
+  </si>
+  <si>
     <t>林世嘉</t>
   </si>
   <si>
-    <t>蔡篤堅</t>
+    <t>tmpada11</t>
+  </si>
+  <si>
+    <t>臺北市大安區仁愛段二小段05345000建號</t>
+  </si>
+  <si>
+    <t>全部</t>
   </si>
   <si>
     <t>93年01月02日</t>
   </si>
   <si>
-    <t>92年01月17日</t>
-  </si>
-  <si>
-    <t>97年04月03日</t>
-  </si>
-  <si>
-    <t>買賣</t>
-  </si>
-  <si>
-    <t>(超過五年）</t>
-  </si>
-  <si>
-    <t>15000000(房地總價額）</t>
-  </si>
-  <si>
-    <t>land</t>
-  </si>
-  <si>
-    <t>normal</t>
-  </si>
-  <si>
-    <t>2012-05-01</t>
-  </si>
-  <si>
-    <t>tmpada11</t>
-  </si>
-  <si>
-    <t>建物標示</t>
-  </si>
-  <si>
-    <t>面積（平方公尺）</t>
-  </si>
-  <si>
-    <t>權利範圍(持分）</t>
-  </si>
-  <si>
-    <t>所有權人</t>
-  </si>
-  <si>
-    <t>登記（取得）時間</t>
-  </si>
-  <si>
-    <t>登記（取得）原因</t>
-  </si>
-  <si>
-    <t>取得價額</t>
-  </si>
-  <si>
-    <t>臺北市大安區仁愛段二小段05345000建號</t>
+    <t>貿賣</t>
   </si>
   <si>
     <t>臺北市大安區仁愛段二小段03854000建號</t>
@@ -150,9 +135,6 @@
     <t>臺北市中山區長安段四小段03734000建號</t>
   </si>
   <si>
-    <t>全部</t>
-  </si>
-  <si>
     <t>12分之1</t>
   </si>
   <si>
@@ -168,19 +150,7 @@
     <t>92年01月17曰</t>
   </si>
   <si>
-    <t>貿賣</t>
-  </si>
-  <si>
     <t>15000000(同上筆土地）</t>
-  </si>
-  <si>
-    <t>廠牌型號</t>
-  </si>
-  <si>
-    <t>汽缸容量</t>
-  </si>
-  <si>
-    <t>所有人</t>
   </si>
   <si>
     <t>VOLKSWAGENPSDDAT2.0</t>
@@ -545,13 +515,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O4"/>
+  <dimension ref="A1:Q3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -594,146 +564,117 @@
       <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C2" s="2">
-        <v>509</v>
+        <v>1069</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="J2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="L2" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>20</v>
       </c>
       <c r="M2" s="2">
         <v>1740</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O2" s="2">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="P2" s="2">
+        <v>0.0211</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>22.5559</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C3" s="2">
-        <v>1069</v>
+        <v>448</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="I3" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="J3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K3" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="L3" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>20</v>
       </c>
       <c r="M3" s="2">
         <v>1740</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O3" s="2">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
-      <c r="A4" s="1">
         <v>16</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="2">
-        <v>448</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="M4" s="2">
-        <v>1740</v>
-      </c>
-      <c r="N4" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="O4" s="2">
-        <v>16</v>
+      <c r="P3" s="2">
+        <v>0.018</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>8.064</v>
       </c>
     </row>
   </sheetData>
@@ -743,7 +684,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -751,155 +692,129 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="1">
+        <v>83.23</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>37</v>
-      </c>
       <c r="H1" s="1" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" s="2">
+        <v>337.9</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="2">
-        <v>83.23</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="E2" s="2" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>50</v>
+        <v>23</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" s="2">
+        <v>26.56</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>40</v>
-      </c>
-      <c r="C3" s="2">
-        <v>337.9</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>45</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1">
+        <v>24</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" s="2">
+        <v>765.6</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C4" s="2">
-        <v>26.56</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>25</v>
-      </c>
       <c r="H4" s="2" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" s="2">
+        <v>3.2</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C5" s="2">
-        <v>765.6</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="E5" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="1">
-        <v>25</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C6" s="2">
-        <v>3.2</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -909,47 +824,27 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F2"/>
+  <dimension ref="B1:F1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="2:6">
       <c r="B1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>53</v>
+        <v>45</v>
+      </c>
+      <c r="C1" s="1">
+        <v>1984</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="1">
-        <v>34</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C2" s="2">
-        <v>1984</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/林世嘉_2012-05-01_財產申報表_tmpada11.xlsx
+++ b/legislator/property/output/normal/林世嘉_2012-05-01_財產申報表_tmpada11.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="49">
   <si>
     <t>name</t>
   </si>
@@ -66,21 +66,33 @@
     <t>total</t>
   </si>
   <si>
+    <t>臺北市大安區仁愛段二小段06010000地號</t>
+  </si>
+  <si>
     <t>臺北市中山區長安段四小段02980000地號</t>
   </si>
   <si>
     <t>臺北市中山區長安段四小段02300000地號</t>
   </si>
   <si>
+    <t>30000分之1703</t>
+  </si>
+  <si>
     <t>10000分之211</t>
   </si>
   <si>
     <t>10000分之180</t>
   </si>
   <si>
+    <t>林世嘉</t>
+  </si>
+  <si>
     <t>蔡篤堅</t>
   </si>
   <si>
+    <t>93年01月02日</t>
+  </si>
+  <si>
     <t>92年01月17日</t>
   </si>
   <si>
@@ -105,49 +117,43 @@
     <t>2012-05-01</t>
   </si>
   <si>
-    <t>林世嘉</t>
-  </si>
-  <si>
     <t>tmpada11</t>
   </si>
   <si>
     <t>臺北市大安區仁愛段二小段05345000建號</t>
   </si>
   <si>
+    <t>臺北市大安區仁愛段二小段03854000建號</t>
+  </si>
+  <si>
+    <t>臺北市中山區長安段四小段01678000建號</t>
+  </si>
+  <si>
+    <t>臺北市中山區長安段四小段02074000建號</t>
+  </si>
+  <si>
+    <t>臺北市中山區長安段四小段03734000建號</t>
+  </si>
+  <si>
     <t>全部</t>
   </si>
   <si>
-    <t>93年01月02日</t>
+    <t>12分之1</t>
+  </si>
+  <si>
+    <t>3分之1</t>
+  </si>
+  <si>
+    <t>10000分之197</t>
+  </si>
+  <si>
+    <t>100分之47</t>
+  </si>
+  <si>
+    <t>92年01月17曰</t>
   </si>
   <si>
     <t>貿賣</t>
-  </si>
-  <si>
-    <t>臺北市大安區仁愛段二小段03854000建號</t>
-  </si>
-  <si>
-    <t>臺北市中山區長安段四小段01678000建號</t>
-  </si>
-  <si>
-    <t>臺北市中山區長安段四小段02074000建號</t>
-  </si>
-  <si>
-    <t>臺北市中山區長安段四小段03734000建號</t>
-  </si>
-  <si>
-    <t>12分之1</t>
-  </si>
-  <si>
-    <t>3分之1</t>
-  </si>
-  <si>
-    <t>10000分之197</t>
-  </si>
-  <si>
-    <t>100分之47</t>
-  </si>
-  <si>
-    <t>92年01月17曰</t>
   </si>
   <si>
     <t>15000000(同上筆土地）</t>
@@ -515,7 +521,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q3"/>
+  <dimension ref="A1:Q4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -573,107 +579,160 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="1">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C2" s="2">
-        <v>1069</v>
+        <v>509</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="M2" s="2">
         <v>1740</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="O2" s="2">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="P2" s="2">
-        <v>0.0211</v>
+        <v>0.0567666666666667</v>
       </c>
       <c r="Q2" s="2">
-        <v>22.5559</v>
+        <v>28.8942333333333</v>
       </c>
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="1">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C3" s="2">
-        <v>448</v>
+        <v>1069</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="M3" s="2">
         <v>1740</v>
       </c>
       <c r="N3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="O3" s="2">
+        <v>15</v>
+      </c>
+      <c r="P3" s="2">
+        <v>0.0211</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>22.5559</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
+      <c r="A4" s="1">
+        <v>16</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="2">
+        <v>448</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I4" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="O3" s="2">
+      <c r="J4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M4" s="2">
+        <v>1740</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="O4" s="2">
         <v>16</v>
       </c>
-      <c r="P3" s="2">
+      <c r="P4" s="2">
         <v>0.018</v>
       </c>
-      <c r="Q3" s="2">
+      <c r="Q4" s="2">
         <v>8.064</v>
       </c>
     </row>
@@ -684,137 +743,325 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:Q6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:17">
       <c r="B1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C1" s="1">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
+      <c r="A2" s="1">
+        <v>21</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="2">
         <v>83.23</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1">
-        <v>22</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C2" s="2">
-        <v>337.9</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>39</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="F2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M2" s="2">
+        <v>1740</v>
+      </c>
+      <c r="N2" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>24</v>
+      <c r="O2" s="2">
+        <v>21</v>
+      </c>
+      <c r="P2" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>83.23</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C3" s="2">
-        <v>26.56</v>
+        <v>337.9</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>40</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="G3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M3" s="2">
+        <v>1740</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="O3" s="2">
+        <v>22</v>
+      </c>
+      <c r="P3" s="2">
+        <v>0.0833333333333333</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>28.1583333333333</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
+      <c r="A4" s="1">
         <v>23</v>
       </c>
-      <c r="H3" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="1">
-        <v>24</v>
-      </c>
       <c r="B4" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C4" s="2">
-        <v>765.6</v>
+        <v>26.56</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>41</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="G4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M4" s="2">
+        <v>1740</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="O4" s="2">
         <v>23</v>
       </c>
-      <c r="H4" s="2" t="s">
-        <v>44</v>
+      <c r="P4" s="2">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>8.85333333333333</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C5" s="2">
-        <v>3.2</v>
+        <v>765.6</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>42</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="G5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M5" s="2">
+        <v>1740</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="O5" s="2">
+        <v>24</v>
+      </c>
+      <c r="P5" s="2">
+        <v>0.0197</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>15.08232</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
+      <c r="A6" s="1">
+        <v>25</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" s="2">
+        <v>3.2</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="H5" s="2" t="s">
-        <v>44</v>
+      <c r="F6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M6" s="2">
+        <v>1740</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="O6" s="2">
+        <v>25</v>
+      </c>
+      <c r="P6" s="2">
+        <v>0.47</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>1.504</v>
       </c>
     </row>
   </sheetData>
@@ -824,27 +1071,47 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:F1"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="2:6">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C1" s="1">
         <v>1984</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="1">
+        <v>34</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" s="2">
+        <v>1984</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/林世嘉_2012-05-01_財產申報表_tmpada11.xlsx
+++ b/legislator/property/output/normal/林世嘉_2012-05-01_財產申報表_tmpada11.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="50">
   <si>
     <t>name</t>
   </si>
@@ -159,10 +159,13 @@
     <t>15000000(同上筆土地）</t>
   </si>
   <si>
+    <t>capacity</t>
+  </si>
+  <si>
     <t>VOLKSWAGENPSDDAT2.0</t>
   </si>
   <si>
-    <t>94年01月</t>
+    <t>94年01月28曰</t>
   </si>
 </sst>
 </file>
@@ -1071,47 +1074,95 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C1" s="1">
-        <v>1984</v>
-      </c>
       <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" s="1">
+        <v>33</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>48</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="1">
-        <v>34</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>47</v>
       </c>
       <c r="C2" s="2">
         <v>1984</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="E2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>28</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2" s="2">
+        <v>1740</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="N2" s="2">
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/林世嘉_2012-05-01_財產申報表_tmpada11.xlsx
+++ b/legislator/property/output/normal/林世嘉_2012-05-01_財產申報表_tmpada11.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="52">
   <si>
     <t>name</t>
   </si>
@@ -159,6 +159,9 @@
     <t>15000000(同上筆土地）</t>
   </si>
   <si>
+    <t>building</t>
+  </si>
+  <si>
     <t>capacity</t>
   </si>
   <si>
@@ -166,6 +169,9 @@
   </si>
   <si>
     <t>94年01月28曰</t>
+  </si>
+  <si>
+    <t>car</t>
   </si>
 </sst>
 </file>
@@ -828,7 +834,7 @@
         <v>28</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>31</v>
@@ -881,7 +887,7 @@
         <v>28</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>31</v>
@@ -934,7 +940,7 @@
         <v>28</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>31</v>
@@ -987,7 +993,7 @@
         <v>46</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="J5" s="2" t="s">
         <v>31</v>
@@ -1040,7 +1046,7 @@
         <v>46</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="J6" s="2" t="s">
         <v>31</v>
@@ -1085,7 +1091,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -1126,7 +1132,7 @@
         <v>33</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C2" s="2">
         <v>1984</v>
@@ -1135,7 +1141,7 @@
         <v>22</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>27</v>
@@ -1144,7 +1150,7 @@
         <v>28</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>31</v>

--- a/legislator/property/output/normal/林世嘉_2012-05-01_財產申報表_tmpada11.xlsx
+++ b/legislator/property/output/normal/林世嘉_2012-05-01_財產申報表_tmpada11.xlsx
@@ -10,13 +10,14 @@
     <sheet name="土地" sheetId="1" r:id="rId1"/>
     <sheet name="建物" sheetId="2" r:id="rId2"/>
     <sheet name="汽車" sheetId="3" r:id="rId3"/>
+    <sheet name="債務" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="69">
   <si>
     <t>name</t>
   </si>
@@ -172,6 +173,57 @@
   </si>
   <si>
     <t>car</t>
+  </si>
+  <si>
+    <t>species</t>
+  </si>
+  <si>
+    <t>debtor</t>
+  </si>
+  <si>
+    <t>房貸</t>
+  </si>
+  <si>
+    <t>借款</t>
+  </si>
+  <si>
+    <t>兆豐國際商業銀行台北復興分行</t>
+  </si>
+  <si>
+    <t>第一商業銀行盧州分行</t>
+  </si>
+  <si>
+    <t>郭素珍</t>
+  </si>
+  <si>
+    <t>97年07月</t>
+  </si>
+  <si>
+    <t>93年02月</t>
+  </si>
+  <si>
+    <t>97年03月</t>
+  </si>
+  <si>
+    <t>97年04月</t>
+  </si>
+  <si>
+    <t>98年04月</t>
+  </si>
+  <si>
+    <t>92年01月</t>
+  </si>
+  <si>
+    <t>92年02月</t>
+  </si>
+  <si>
+    <t>購屋</t>
+  </si>
+  <si>
+    <t>資金週轉</t>
+  </si>
+  <si>
+    <t>debt</t>
   </si>
 </sst>
 </file>
@@ -1174,4 +1226,454 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:N10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:14">
+      <c r="B1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" s="1">
+        <v>86</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E2" s="2">
+        <v>5566788</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2" s="2">
+        <v>1740</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="N2" s="2">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" s="1">
+        <v>87</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E3" s="2">
+        <v>6675465</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L3" s="2">
+        <v>1740</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="N3" s="2">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" s="1">
+        <v>88</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E4" s="2">
+        <v>2037093</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L4" s="2">
+        <v>1740</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="N4" s="2">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" s="1">
+        <v>89</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E5" s="2">
+        <v>6739079</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L5" s="2">
+        <v>1740</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="N5" s="2">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" s="1">
+        <v>90</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E6" s="2">
+        <v>2161265</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L6" s="2">
+        <v>1740</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="N6" s="2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" s="1">
+        <v>91</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E7" s="2">
+        <v>563630</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L7" s="2">
+        <v>1740</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="N7" s="2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" s="1">
+        <v>92</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E8" s="2">
+        <v>543011</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L8" s="2">
+        <v>1740</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="N8" s="2">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9" s="1">
+        <v>93</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E9" s="2">
+        <v>714257</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L9" s="2">
+        <v>1740</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="N9" s="2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10" s="1">
+        <v>94</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E10" s="2">
+        <v>2000000</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L10" s="2">
+        <v>1740</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="N10" s="2">
+        <v>94</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>